--- a/500all/speech_level/speeches_CHRG-114hhrg20723.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20723.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400220</t>
   </si>
   <si>
-    <t>Steve King</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. King. The Executive Overreach Task Force will come to order. Without objection, the Chair is authorized to declare a recess of the Task Force at any time. I will now recognize myself for my opening statement.    Today's hearing of the Executive Overreach Task Force will focus on executive overreach in the areas of regulatory enforcement and infrastructure. I will use my time today to focus on executive overreach as it adversely affects our Nation's vital infrastructure.    Federal mandates and untimely regulatory actions can often limit the efficient investment of the Nation's core infrastructure funds. One prominent example that comes to mind is the misuse of the Highway Trust Fund to pay for liberal policy goals rather than to build and maintain our roads and bridges.    The Highway Trust Fund is primarily funded through the Federal gas tax, a user's fee, which is 18.4 cents per gallon on gasoline and 24.4 cents per gallon on diesel fuel. Rather than spending every penny directly to build, maintain, and repair our roads and bridges, the Highway Trust Fund is being diverted to pay for Davis-Bacon wages, bike trails, squirrel sanctuaries, and environmental and archaeological studies and compliance.    Davis-Bacon wages, for example, make highway construction projects 20 percent more expensive than they would otherwise be if competitive, market-driven wages were paid. And by the way, those would be my numbers that come from our construction company that has been busy doing this kind of work for 41 years.    The reason for these inefficiencies in the Highway Trust Fund largely lay that the feet of a dormant Congress that delegated funding decision to the unaccountable bureaucrats in the executive branch. Without their elected representatives to fight for them with earmarks to fund direct needs, our constituents and their direct transportation needs are often ignored.    Furthermore, Federal executive branch demands for dedicating transportation funds to secondary activities, such as bicycle and pedestrian trails and landscaping, often interfere with the funding mechanisms and list of priorities for core infrastructure programs as understood by the States involved.    Without these formulaic prescriptions, we could build five miles of road instead of four, or build five new bridges instead of four. New layers of process upon process imposed in the name of protecting the environment can also significantly delay infrastructure improvements, even when many such improvements are known to have no significant environmental impacts.    Researchers have laid out a variety of Federal regulations that make building transportation infrastructure to rural areas much more difficult today, including environmental reviews that can cause the approval process for some projects to extend 10 to 15 years.    A September 2015 study by Philip K. Howard at Common Good concluded that the cumulative effect of 6 year delays in starting construction on public projects costs the Nation a cumulative total of over $3.7 trillion, and that including the costs of prolonged inefficiencies and unnecessary pollution during the period of legal review. That waste amounts to more than double the $1.7 trillion needed through the end of this decade to modernize America's infrastructure.    As the author of that report noted, no one deliberately designed America's infrastructure approval systems. It is an accident of legal accretion over the past 50 years. Environmental review was supposed to highlight major issues in 300 pages or less on complex projects so that officials can make an informed decision.    As practiced today, environmental review often harms the environment. America's antiquated power grid, for example, wastes the equivalent of 200 coal-burning power plants. Federal agencies, such as the Environmental Protection Agency and Corps of Engineers, also often seek to expand their jurisdiction over new waters through the issuance of guidelines like WOTUS--as we call it--or Waters of the United States--that interpret Federal laws in new ways that put things like drainage ditches and minor tributaries under Federal jurisdiction.    In fact, some of this goes all the way up the dry waterway to the top of the hill or to the kitchen sink, and it has been years of facing that kind of overregulation.    All the while, Congress has largely abandoned its power to direct Federal funds to the infrastructure and other priorities of the people under the name of earmark reform. While some criticize how Members of Congress sought to direct Federal funds to some projects rather than others, the alternative now is that unelected bureaucrats who are not beholden to the people through regular elections are directing Federal taxpayer dollars to their own infrastructure priorities, or rather to their own ideological pursuits, that may or may not have anything to do with core infrastructure priorities.    In other words, they had the earmarking that was done by individual Members of Congress in the interests of their constituents in the light of day that was focused on those priorities of infrastructure, now has been handed over to the executive branch of government for them to select those earmark priorities as opposed to Members of Congress who are up for election and reelection.    Members of Congress are uniquely positioned to better understand the need of their constituents and their districts. Renewing the use of earmarks is an important method to restore Article I authority in Congress and to exercise the powers of the purse. Prudent and authorized earmarks are an appropriate use of Congressional spending authority and ensure that Congress controls the purse strings rather than continuing to improperly delegate authority to unelected, unaccountable bureaucrats.    I look forward to hearing from all our witnesses today, and exploring how the people's elected representatives might regain more of the power to direct infrastructure priorities to the people's will instead of the will of unelected bureaucracies. I conclude my opening statement, and now I would recognize the Ranking Member from Tennessee, Mr. Cohen, for his opening statement.</t>
   </si>
   <si>
     <t>412236</t>
   </si>
   <si>
-    <t>Steve Cohen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cohen. Thank you. I could read my opening statement, which is a very well-written opening statement. Staff did a great job. James, stand and take a bow. Great job, but I am not going to read it because it has things that I think my Chairman probably would not like. It suggests that we should be doing other things like voting rights and police minority problems that we have, and gun violence, and dealing with those issues, and the disparity in wealth, rather than this.    So, I am just going to ask to enter this in the record, and I am going to just say that I think the Chairman is great, and he has done a great job today in talking about earmarks, and he is right about earmarks.    We ought to have earmarks, and it is not just because it is in Article 1 and the unelected bureaucrats, but it is the oil that makes the machine run, and that is one of the reasons why we have not done much here in the last few years, is because we do not have earmarks. Where everybody has got a piece of the pie, and everybody has a reason to vote for a bill, and the speaker has got a little clout, and some other people have a little clout, and people can conform their conducts to what makes things happen, gets infrastructure projects funded, and gets money back home, which is real important.    And the taking away of earmarks was a real mistake, and it is something Congress has--it hurt Congress. It has hurt the power of the Speaker, and it has hurt the power of us to create legislation and get things past.    There should have been some reforms, and there were some reforms. There could be some reforms, but you do not just throw it out. You mend it, and that is what we ought to do, and we should do.    So, I want to hear from people about how good earmarks are. It is just music to my ears because I think it works. It is good to bring home the bacon, but it is also good to make this place get together, work with bipartisan support for bills, which we used to have in transportation, and we used to have on highway bills and we had on military defense spending and other areas, veterans bills.    Everybody had something in the pie, and so everybody wanted to get something done, and it did not come to more than one or one and a half percent of the total budget, and otherwise it is unelected folks. It is bureaucrats making the decisions, or people in the State where the money goes to, and they decide where to spend projects. And it is ridiculous to think that they do not their politics when they make their decision.    I am not even sure we consider politics in our decision. Some people may, but in my first few years when we had earmarks, I let the city mayors--who maybe had politics, but I wanted to make sure that their proposals were good government--the roads they chose were important to the development of downtown, and they would get people moving around, or there were projects that were important to the universities and medical school--University of Tennessee or the University of Memphis, and I let the leaders decide what was important, and I came up here and worked for them, and that is the way it ought to work.    So, with that, I yield back the balance of my time. I thank Mr. King for being the voice of Mr. Young and others who understand the importance of earmarks.</t>
   </si>
   <si>
@@ -76,25 +70,16 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Mukasey</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mukasey. I think actually mister is better. I prefer it. But thank you very much, Mr. Chairman, and Ranking Member Cohen. I appreciate the opportunity to appear here in relation to what I think is an enormously important issue, and that relates to how our laws and regulations are enforced.    And I am not going to read my statement into the record, not for the reasons that the Ranking Member mentioned, but rather because I think it is already in the record, and I think it is better simply to summarize and point out what the point is I am trying to make, which is that if--when enforcing laws and regulations stops being about simply the neutral application of neutral principles, and get incentives built into it that either permit regulators or enforcers to further their own agendas--which may include the public interest, or may include perpetuating their own activities, or further the agendas of others--then you create perverse incentives, and in that situation, it is not surprising that you often get perverse results.    There are numerous cases that one could point to. The Vascular Solutions case involving a company that was selling a licensed-by-the-FDA device that was useful in treating vein disorders was able to--through results that it became aware of through physicians--found out that that device could also treat related vein disorders and so advised doctors.    They were prosecuted for 2 years for promoting an off-label use of the device, and it took them 2 years and millions of dollars to get cleared until acquittal was returned by a jury. That should not happen. That is an example of creating and permitting perverse results in law enforcement.    There are other examples. Gibson Guitar case is probably a museum-quality example. The company was prosecuted for importing wood that was gathered in violation, not of the laws of the United States, but in violation of the laws of a South American country. They had no idea that those laws were violated, but there was a provision in the regulations that made it unlawful to import wood that was harvested in violation of foreign law. Not only did they get prosecuted, but there were fines extracted from them that were then used to contribute to the National Fish and Wildlife Foundation, even though that had absolutely nothing to do with the claimed violation that they had committed.    There are a lot of other examples. The U.S. Department of Justice has an asset forfeiture--an equitable sharing program that it has entered into with the State, in which State police in essence have an incentive to stop people and seize money, which they then share with the Federal Government.    Again, they share it supposedly for law enforcement uses, but the unregulated seizure and sharing of money is something that has gotten completely outside the control of the Congress, which is supposed to be in charge of allocating money, in charge of dispersing money, and instead leaves it to the discretion of people in the agencies. That is not the way, I think, the Constitution was written. It is not, I think, the way the founders envisioned the system would work, and it is not the way, I think, the system should work. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. King. I thank our Attorney General for his testimony, and now recognize Mr. Min for his 5 minutes.</t>
   </si>
   <si>
-    <t>Min</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Min. Thank you for inviting me here to testify on this important topic of potential executive branch overreach. As I discuss in my written testimony, the scope of today's hearing is quite sprawling, spreading a broad array of complex and highly technical legal and constitutional issues.    Obviously, I do not have the time to get into all of these today, but I would like to make one general observation. Today's hearing assumes that there is executive branch overreach, and this assumption is based in large part on the claim that there is a so-called swarm of litigation that DOJ and other governmental agencies have initiated in recent years. But this claim largely ignores the context of these various DOJ investigations.    Lest we forget, we are still recovering from the largest financial crisis in the history of the world, one which caused $22 trillion in total damages to the American people.    Similarly, the BP Deepwater Horizon oil spill was the largest environmental disaster we have ever seen, one whose effects will be enormous and felt for generations.    Given the magnitude of harm resulting from these and other recent incidents of business misconduct, it would be highly unusual if DOJ had not launched a wave of major prosecutions in recent years.    My testimony today, however, focuses on one discrete issue related to executive overreach, which is this: When the Federal Government settlement of litigation claims includes provisions allowing or acquiring charitable donations to be made to third parties, to what extent do these charitable payment provisions encroach on Congress' power of appropriations, and should we take measures to curb or eliminate this practice?    Of course, H.R. 5063, the Stop Settlement Slush Funds Act of 2016, would expressly prohibit the DOJ and other Federal agencies for negotiating for such charitable payment provisions unless they were specifically directed toward actual victims of the alleged misconduct.    While I appreciate all the hard work that has gone into H.R. 5063, I think it is a solution in search of problem, as there is a marked lack of evidence, other than anecdotal evidence, that charitable payment provisions actually pose any sort of problem, either from the standpoint of law or policy.    Legally, it is well settled that charitable payment provisions are permissible and enforceable under current law, so long as they meet certain conditions. They should be executed prior to an admission or finding of liability. The government should not retain any post-settlement control over the donated funds, and there should be some nexus between the donations and the underlying legal violation.    Charitable payment provisions that meet these criteria are clearly enforceable. Indeed, it is worth mentioning that the White House Office of Legal Counsel, the GAO, which advises and supports Congress, and the Federal courts are all in agreement on this point, as a describe in greater detail in my written testimony.    Indeed, this very body has implicitly acknowledged the legality of charitable payment provisions by passing H.R. 5063 out of Committee. If these types of provisions were legal, of course there would be no need to pass legislation prohibiting them.    There is also no evidence that charitable payment provisions pose a policy problem. This Committee has spent significant time investigating the charitable payment provisions negotiated by DOJ in recent settlements, but while there has been a flood of incendiary rhetoric accusing DOJ of various nefarious deeds around this, there has been a notable lack of any evidence behind these claims.    The recent RMBS settlements negotiated by DOJ with the largest investment banks illustrates this point rather well, I think. These settlements, which include provisions for donations to be made to housing counseling groups, have been described by some as ``liberal slush funds'' because the list of approved donees includes groups like NeighborWorks or La Raza.    But this characterization of these settlements is highly misleading. The charitable payment provisions in question allow the banks to choose from among hundreds of different HUD-approved housing counselling groups, including ones that might fairly be characterized as conservative. These groups were not chosen on the basis of their ideological postures, but rather because of their proven effectiveness in prevent foreclosures.    Thus, H.R. 5063, in my view, does not actually solve any problems, but is likely to create a number of vexing problems. H.R. 5063 weakens the Federal Government's ability to pursue the best tailored remedies for civil and criminal violations. It is of course a first principle of negotiations that negotiators should have flexible and open-ended authority so as to be able to negotiation for Pareto optimal deals. H.R. 5063 would detract from that.    Moreover, limiting DOJ settlement authority is likely to drive it toward a more aggressive litigative posture. That, in turn, is likely to stunt capital formation and economic growth by shifting prosecutorial resources away from negotiation and toward litigation, thus increasing the uncertainty of the business community around litigation.    In my view, one of the key problems underlying H.R. 5063 is that it embodies a flawed view of the purpose of regulatory enforcement. Proponents of H.R. 5063 have expressed the view that civil penalties should serve a specific restitutionary function, providing compensation to injured individuals, but this view flies in the face of long-standing theory and basic logic. Civil penalties by their very nature are inefficient means of providing redress to injured parties.    The long-standing goal of civil penalties has contrarily been to survey deterrents and general compensation function. Charitable payment provisions help to facilitate the public policy goals.    If this Task Force is concerned about ensuring that victims of crime are compensated, it should create more private causes of action for these victims. Private litigation is, from both a theoretical and empirical perspective, a far more efficient vehicle for providing specific restitution. I thank you again for the opportunity to testify and look forward to your questions. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Min. The Chair now recognizes the Honorable Mr. Ridley for his testimony.</t>
-  </si>
-  <si>
-    <t>Ridley</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ridley. Thank you, Mr. Chairman, Ranking Member Cohen, Members of the Task Force for the opportunity to testify related to the benefits of congressionally identified transportation improvement projects, more commonly referred to as earmarks.    We also appreciate the critical charge and the important work of the Task Force, and strongly encourage all possible action, in responsible limit, to reduce and eliminate Federal regulatory burden on citizens, business, and government entities.    The deficiency of a long-underfunded national transportation system cannot be resolved by States alone. They require increasing a congressionally influenced Federal investment level and a long-term improvement strategy. Scarce Federal transportation discretionary dollars should not be unduly influenced by other fringe or completely unrelated initiatives, and should instead by wholly focused on critically needed transportation improvements.    The resolution of our ongoing transportation funding crisis and cracking of new, more efficient project and program delivery protocols must be jointly developed by a renewed State and Federal partnership. Such a partnership must be based on trust and alliance between the State, local leaders, and our congressional Members, along with the clear and mutual understanding of the critical and growing needs of the infrastructure system.    Oklahoma has had a long history of successfully communicating the State's transportation system needs to our congressional delegation and, in turn, receiving congressional support for critically needed investments.    Interstate 40 through downtown Oklahoma City and Interstate 44 east of the Arkansas River in Tulsa are two tremendously important examples of dramatic improvements to the national transportation linkage that simply would not have been possible for Oklahoma to complete without the congressionally-directed Federal support. Oklahoma utilizes an 8 year construction work program to develop and deliver many of our federally funded projects.    This plan is based on identified needs deficiency and is highly publicized around the State to ensure our transparency efforts. All projects in this plan have been fully vetted, are considered a priority, and are being actively advanced through the development process.    The encompassed projects are inherently a topic of constant conversation and focus of the Oklahoma Congressional Delegation. Our delegation was always quick to try and help with Federal funding for our 8 year plan projects when opportunities were presented.    It is important to recognize that any new addition of congressionally-identified project funding simply extended the planned investment and targeted projection, and enhanced the reach of the overall plan. While some earmarks were doomed to failure in some State, because there was never enough congressionally-identified directed funding to complete the initiative as conceived, conversely our 8 year construction work plan projects are typically well into development, enjoy solid mix of resource commitments, multifaceted resource availability provided by a high degree of flexibility, and offer the greatest opportunity for success.    Make no mistake, transportation infrastructure earmarks still exist today, such as the TIGER program, FASTLANE grants, but are largely directed through funding pools left to the discretion of the executive branch and the administration of the associated jurisdictional agencies. Oklahoma has been successful in garnering discretionary participation in improvement projects under these competitive programs.    However, the projects are sometimes developed to include additional elements that divert a percentage of the funding away from the more direct transportation infrastructure investments and toward fringe enhancements to garner favor with perceived executive priorities.    I believe that there is an inherent need for a methodology to facilitate congressionally identified projects that can assist with transportation infrastructure improvements of national significance and that clearly and undeniably support our national transportation network.    Opportunities that encourage State leaders' and officials' interaction with their congressional delegations that require detailed explanations of the need of the national transportation network can only have positive outcomes. A carefully direct, transparent project vetting process is paramount and should be mandated before any congressionally identified funding is committed.    In addition, the responsible congressional Committee leadership and Committee Members should be provided with greater influence to shape and direct all facets of the Federal program. Discretionary transportation funding programs should be utilized to encourage a greater understanding of the critical needs of the national transportation system, and should require the broad support of Congress, rather than to be styled to pursue a narrowly defined agenda almost entirely by the executive branch.    I might make mention also, Mr. Chairman, that a couple of earmarks that come to light are the inland waterway system was an earmark, and so was our National System of Highways or the interstate system was both earmarks.    Mr. Chairman, Members, thank you again for the opportunity to visit with you today. I will be happy to answer any questions.</t>
@@ -646,11 +631,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -670,13 +653,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -698,11 +679,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -724,11 +703,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -748,13 +725,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -776,11 +751,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -800,13 +773,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -828,11 +799,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -852,13 +821,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -880,11 +847,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -904,13 +869,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -932,11 +895,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -956,13 +917,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -984,11 +943,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1008,13 +965,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1036,11 +991,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1060,13 +1013,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1088,11 +1039,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1114,11 +1063,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1138,13 +1085,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1164,13 +1109,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1190,13 +1133,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1216,13 +1157,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1242,13 +1181,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1268,13 +1205,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1294,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1320,13 +1253,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1346,13 +1277,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1372,13 +1301,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1398,13 +1325,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1424,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1450,13 +1373,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1476,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1502,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1528,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1554,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1580,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1606,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1632,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1658,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1684,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1710,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1736,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1762,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1788,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1814,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1840,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1866,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1892,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1918,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1944,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1970,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1996,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2022,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2048,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2074,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2102,11 +1975,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2126,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2154,11 +2023,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20723.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20723.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,21 @@
     <t>400220</t>
   </si>
   <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. King. The Executive Overreach Task Force will come to order. Without objection, the Chair is authorized to declare a recess of the Task Force at any time. I will now recognize myself for my opening statement.    Today's hearing of the Executive Overreach Task Force will focus on executive overreach in the areas of regulatory enforcement and infrastructure. I will use my time today to focus on executive overreach as it adversely affects our Nation's vital infrastructure.    Federal mandates and untimely regulatory actions can often limit the efficient investment of the Nation's core infrastructure funds. One prominent example that comes to mind is the misuse of the Highway Trust Fund to pay for liberal policy goals rather than to build and maintain our roads and bridges.    The Highway Trust Fund is primarily funded through the Federal gas tax, a user's fee, which is 18.4 cents per gallon on gasoline and 24.4 cents per gallon on diesel fuel. Rather than spending every penny directly to build, maintain, and repair our roads and bridges, the Highway Trust Fund is being diverted to pay for Davis-Bacon wages, bike trails, squirrel sanctuaries, and environmental and archaeological studies and compliance.    Davis-Bacon wages, for example, make highway construction projects 20 percent more expensive than they would otherwise be if competitive, market-driven wages were paid. And by the way, those would be my numbers that come from our construction company that has been busy doing this kind of work for 41 years.    The reason for these inefficiencies in the Highway Trust Fund largely lay that the feet of a dormant Congress that delegated funding decision to the unaccountable bureaucrats in the executive branch. Without their elected representatives to fight for them with earmarks to fund direct needs, our constituents and their direct transportation needs are often ignored.    Furthermore, Federal executive branch demands for dedicating transportation funds to secondary activities, such as bicycle and pedestrian trails and landscaping, often interfere with the funding mechanisms and list of priorities for core infrastructure programs as understood by the States involved.    Without these formulaic prescriptions, we could build five miles of road instead of four, or build five new bridges instead of four. New layers of process upon process imposed in the name of protecting the environment can also significantly delay infrastructure improvements, even when many such improvements are known to have no significant environmental impacts.    Researchers have laid out a variety of Federal regulations that make building transportation infrastructure to rural areas much more difficult today, including environmental reviews that can cause the approval process for some projects to extend 10 to 15 years.    A September 2015 study by Philip K. Howard at Common Good concluded that the cumulative effect of 6 year delays in starting construction on public projects costs the Nation a cumulative total of over $3.7 trillion, and that including the costs of prolonged inefficiencies and unnecessary pollution during the period of legal review. That waste amounts to more than double the $1.7 trillion needed through the end of this decade to modernize America's infrastructure.    As the author of that report noted, no one deliberately designed America's infrastructure approval systems. It is an accident of legal accretion over the past 50 years. Environmental review was supposed to highlight major issues in 300 pages or less on complex projects so that officials can make an informed decision.    As practiced today, environmental review often harms the environment. America's antiquated power grid, for example, wastes the equivalent of 200 coal-burning power plants. Federal agencies, such as the Environmental Protection Agency and Corps of Engineers, also often seek to expand their jurisdiction over new waters through the issuance of guidelines like WOTUS--as we call it--or Waters of the United States--that interpret Federal laws in new ways that put things like drainage ditches and minor tributaries under Federal jurisdiction.    In fact, some of this goes all the way up the dry waterway to the top of the hill or to the kitchen sink, and it has been years of facing that kind of overregulation.    All the while, Congress has largely abandoned its power to direct Federal funds to the infrastructure and other priorities of the people under the name of earmark reform. While some criticize how Members of Congress sought to direct Federal funds to some projects rather than others, the alternative now is that unelected bureaucrats who are not beholden to the people through regular elections are directing Federal taxpayer dollars to their own infrastructure priorities, or rather to their own ideological pursuits, that may or may not have anything to do with core infrastructure priorities.    In other words, they had the earmarking that was done by individual Members of Congress in the interests of their constituents in the light of day that was focused on those priorities of infrastructure, now has been handed over to the executive branch of government for them to select those earmark priorities as opposed to Members of Congress who are up for election and reelection.    Members of Congress are uniquely positioned to better understand the need of their constituents and their districts. Renewing the use of earmarks is an important method to restore Article I authority in Congress and to exercise the powers of the purse. Prudent and authorized earmarks are an appropriate use of Congressional spending authority and ensure that Congress controls the purse strings rather than continuing to improperly delegate authority to unelected, unaccountable bureaucrats.    I look forward to hearing from all our witnesses today, and exploring how the people's elected representatives might regain more of the power to direct infrastructure priorities to the people's will instead of the will of unelected bureaucracies. I conclude my opening statement, and now I would recognize the Ranking Member from Tennessee, Mr. Cohen, for his opening statement.</t>
   </si>
   <si>
     <t>412236</t>
   </si>
   <si>
+    <t>Cohen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cohen. Thank you. I could read my opening statement, which is a very well-written opening statement. Staff did a great job. James, stand and take a bow. Great job, but I am not going to read it because it has things that I think my Chairman probably would not like. It suggests that we should be doing other things like voting rights and police minority problems that we have, and gun violence, and dealing with those issues, and the disparity in wealth, rather than this.    So, I am just going to ask to enter this in the record, and I am going to just say that I think the Chairman is great, and he has done a great job today in talking about earmarks, and he is right about earmarks.    We ought to have earmarks, and it is not just because it is in Article 1 and the unelected bureaucrats, but it is the oil that makes the machine run, and that is one of the reasons why we have not done much here in the last few years, is because we do not have earmarks. Where everybody has got a piece of the pie, and everybody has a reason to vote for a bill, and the speaker has got a little clout, and some other people have a little clout, and people can conform their conducts to what makes things happen, gets infrastructure projects funded, and gets money back home, which is real important.    And the taking away of earmarks was a real mistake, and it is something Congress has--it hurt Congress. It has hurt the power of the Speaker, and it has hurt the power of us to create legislation and get things past.    There should have been some reforms, and there were some reforms. There could be some reforms, but you do not just throw it out. You mend it, and that is what we ought to do, and we should do.    So, I want to hear from people about how good earmarks are. It is just music to my ears because I think it works. It is good to bring home the bacon, but it is also good to make this place get together, work with bipartisan support for bills, which we used to have in transportation, and we used to have on highway bills and we had on military defense spending and other areas, veterans bills.    Everybody had something in the pie, and so everybody wanted to get something done, and it did not come to more than one or one and a half percent of the total budget, and otherwise it is unelected folks. It is bureaucrats making the decisions, or people in the State where the money goes to, and they decide where to spend projects. And it is ridiculous to think that they do not their politics when they make their decision.    I am not even sure we consider politics in our decision. Some people may, but in my first few years when we had earmarks, I let the city mayors--who maybe had politics, but I wanted to make sure that their proposals were good government--the roads they chose were important to the development of downtown, and they would get people moving around, or there were projects that were important to the universities and medical school--University of Tennessee or the University of Memphis, and I let the leaders decide what was important, and I came up here and worked for them, and that is the way it ought to work.    So, with that, I yield back the balance of my time. I thank Mr. King for being the voice of Mr. Young and others who understand the importance of earmarks.</t>
   </si>
   <si>
@@ -70,16 +82,25 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Mukasey</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Mukasey. I think actually mister is better. I prefer it. But thank you very much, Mr. Chairman, and Ranking Member Cohen. I appreciate the opportunity to appear here in relation to what I think is an enormously important issue, and that relates to how our laws and regulations are enforced.    And I am not going to read my statement into the record, not for the reasons that the Ranking Member mentioned, but rather because I think it is already in the record, and I think it is better simply to summarize and point out what the point is I am trying to make, which is that if--when enforcing laws and regulations stops being about simply the neutral application of neutral principles, and get incentives built into it that either permit regulators or enforcers to further their own agendas--which may include the public interest, or may include perpetuating their own activities, or further the agendas of others--then you create perverse incentives, and in that situation, it is not surprising that you often get perverse results.    There are numerous cases that one could point to. The Vascular Solutions case involving a company that was selling a licensed-by-the-FDA device that was useful in treating vein disorders was able to--through results that it became aware of through physicians--found out that that device could also treat related vein disorders and so advised doctors.    They were prosecuted for 2 years for promoting an off-label use of the device, and it took them 2 years and millions of dollars to get cleared until acquittal was returned by a jury. That should not happen. That is an example of creating and permitting perverse results in law enforcement.    There are other examples. Gibson Guitar case is probably a museum-quality example. The company was prosecuted for importing wood that was gathered in violation, not of the laws of the United States, but in violation of the laws of a South American country. They had no idea that those laws were violated, but there was a provision in the regulations that made it unlawful to import wood that was harvested in violation of foreign law. Not only did they get prosecuted, but there were fines extracted from them that were then used to contribute to the National Fish and Wildlife Foundation, even though that had absolutely nothing to do with the claimed violation that they had committed.    There are a lot of other examples. The U.S. Department of Justice has an asset forfeiture--an equitable sharing program that it has entered into with the State, in which State police in essence have an incentive to stop people and seize money, which they then share with the Federal Government.    Again, they share it supposedly for law enforcement uses, but the unregulated seizure and sharing of money is something that has gotten completely outside the control of the Congress, which is supposed to be in charge of allocating money, in charge of dispersing money, and instead leaves it to the discretion of people in the agencies. That is not the way, I think, the Constitution was written. It is not, I think, the way the founders envisioned the system would work, and it is not the way, I think, the system should work. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. King. I thank our Attorney General for his testimony, and now recognize Mr. Min for his 5 minutes.</t>
   </si>
   <si>
+    <t>Min</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Min. Thank you for inviting me here to testify on this important topic of potential executive branch overreach. As I discuss in my written testimony, the scope of today's hearing is quite sprawling, spreading a broad array of complex and highly technical legal and constitutional issues.    Obviously, I do not have the time to get into all of these today, but I would like to make one general observation. Today's hearing assumes that there is executive branch overreach, and this assumption is based in large part on the claim that there is a so-called swarm of litigation that DOJ and other governmental agencies have initiated in recent years. But this claim largely ignores the context of these various DOJ investigations.    Lest we forget, we are still recovering from the largest financial crisis in the history of the world, one which caused $22 trillion in total damages to the American people.    Similarly, the BP Deepwater Horizon oil spill was the largest environmental disaster we have ever seen, one whose effects will be enormous and felt for generations.    Given the magnitude of harm resulting from these and other recent incidents of business misconduct, it would be highly unusual if DOJ had not launched a wave of major prosecutions in recent years.    My testimony today, however, focuses on one discrete issue related to executive overreach, which is this: When the Federal Government settlement of litigation claims includes provisions allowing or acquiring charitable donations to be made to third parties, to what extent do these charitable payment provisions encroach on Congress' power of appropriations, and should we take measures to curb or eliminate this practice?    Of course, H.R. 5063, the Stop Settlement Slush Funds Act of 2016, would expressly prohibit the DOJ and other Federal agencies for negotiating for such charitable payment provisions unless they were specifically directed toward actual victims of the alleged misconduct.    While I appreciate all the hard work that has gone into H.R. 5063, I think it is a solution in search of problem, as there is a marked lack of evidence, other than anecdotal evidence, that charitable payment provisions actually pose any sort of problem, either from the standpoint of law or policy.    Legally, it is well settled that charitable payment provisions are permissible and enforceable under current law, so long as they meet certain conditions. They should be executed prior to an admission or finding of liability. The government should not retain any post-settlement control over the donated funds, and there should be some nexus between the donations and the underlying legal violation.    Charitable payment provisions that meet these criteria are clearly enforceable. Indeed, it is worth mentioning that the White House Office of Legal Counsel, the GAO, which advises and supports Congress, and the Federal courts are all in agreement on this point, as a describe in greater detail in my written testimony.    Indeed, this very body has implicitly acknowledged the legality of charitable payment provisions by passing H.R. 5063 out of Committee. If these types of provisions were legal, of course there would be no need to pass legislation prohibiting them.    There is also no evidence that charitable payment provisions pose a policy problem. This Committee has spent significant time investigating the charitable payment provisions negotiated by DOJ in recent settlements, but while there has been a flood of incendiary rhetoric accusing DOJ of various nefarious deeds around this, there has been a notable lack of any evidence behind these claims.    The recent RMBS settlements negotiated by DOJ with the largest investment banks illustrates this point rather well, I think. These settlements, which include provisions for donations to be made to housing counseling groups, have been described by some as ``liberal slush funds'' because the list of approved donees includes groups like NeighborWorks or La Raza.    But this characterization of these settlements is highly misleading. The charitable payment provisions in question allow the banks to choose from among hundreds of different HUD-approved housing counselling groups, including ones that might fairly be characterized as conservative. These groups were not chosen on the basis of their ideological postures, but rather because of their proven effectiveness in prevent foreclosures.    Thus, H.R. 5063, in my view, does not actually solve any problems, but is likely to create a number of vexing problems. H.R. 5063 weakens the Federal Government's ability to pursue the best tailored remedies for civil and criminal violations. It is of course a first principle of negotiations that negotiators should have flexible and open-ended authority so as to be able to negotiation for Pareto optimal deals. H.R. 5063 would detract from that.    Moreover, limiting DOJ settlement authority is likely to drive it toward a more aggressive litigative posture. That, in turn, is likely to stunt capital formation and economic growth by shifting prosecutorial resources away from negotiation and toward litigation, thus increasing the uncertainty of the business community around litigation.    In my view, one of the key problems underlying H.R. 5063 is that it embodies a flawed view of the purpose of regulatory enforcement. Proponents of H.R. 5063 have expressed the view that civil penalties should serve a specific restitutionary function, providing compensation to injured individuals, but this view flies in the face of long-standing theory and basic logic. Civil penalties by their very nature are inefficient means of providing redress to injured parties.    The long-standing goal of civil penalties has contrarily been to survey deterrents and general compensation function. Charitable payment provisions help to facilitate the public policy goals.    If this Task Force is concerned about ensuring that victims of crime are compensated, it should create more private causes of action for these victims. Private litigation is, from both a theoretical and empirical perspective, a far more efficient vehicle for providing specific restitution. I thank you again for the opportunity to testify and look forward to your questions. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Min. The Chair now recognizes the Honorable Mr. Ridley for his testimony.</t>
+  </si>
+  <si>
+    <t>Ridley</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ridley. Thank you, Mr. Chairman, Ranking Member Cohen, Members of the Task Force for the opportunity to testify related to the benefits of congressionally identified transportation improvement projects, more commonly referred to as earmarks.    We also appreciate the critical charge and the important work of the Task Force, and strongly encourage all possible action, in responsible limit, to reduce and eliminate Federal regulatory burden on citizens, business, and government entities.    The deficiency of a long-underfunded national transportation system cannot be resolved by States alone. They require increasing a congressionally influenced Federal investment level and a long-term improvement strategy. Scarce Federal transportation discretionary dollars should not be unduly influenced by other fringe or completely unrelated initiatives, and should instead by wholly focused on critically needed transportation improvements.    The resolution of our ongoing transportation funding crisis and cracking of new, more efficient project and program delivery protocols must be jointly developed by a renewed State and Federal partnership. Such a partnership must be based on trust and alliance between the State, local leaders, and our congressional Members, along with the clear and mutual understanding of the critical and growing needs of the infrastructure system.    Oklahoma has had a long history of successfully communicating the State's transportation system needs to our congressional delegation and, in turn, receiving congressional support for critically needed investments.    Interstate 40 through downtown Oklahoma City and Interstate 44 east of the Arkansas River in Tulsa are two tremendously important examples of dramatic improvements to the national transportation linkage that simply would not have been possible for Oklahoma to complete without the congressionally-directed Federal support. Oklahoma utilizes an 8 year construction work program to develop and deliver many of our federally funded projects.    This plan is based on identified needs deficiency and is highly publicized around the State to ensure our transparency efforts. All projects in this plan have been fully vetted, are considered a priority, and are being actively advanced through the development process.    The encompassed projects are inherently a topic of constant conversation and focus of the Oklahoma Congressional Delegation. Our delegation was always quick to try and help with Federal funding for our 8 year plan projects when opportunities were presented.    It is important to recognize that any new addition of congressionally-identified project funding simply extended the planned investment and targeted projection, and enhanced the reach of the overall plan. While some earmarks were doomed to failure in some State, because there was never enough congressionally-identified directed funding to complete the initiative as conceived, conversely our 8 year construction work plan projects are typically well into development, enjoy solid mix of resource commitments, multifaceted resource availability provided by a high degree of flexibility, and offer the greatest opportunity for success.    Make no mistake, transportation infrastructure earmarks still exist today, such as the TIGER program, FASTLANE grants, but are largely directed through funding pools left to the discretion of the executive branch and the administration of the associated jurisdictional agencies. Oklahoma has been successful in garnering discretionary participation in improvement projects under these competitive programs.    However, the projects are sometimes developed to include additional elements that divert a percentage of the funding away from the more direct transportation infrastructure investments and toward fringe enhancements to garner favor with perceived executive priorities.    I believe that there is an inherent need for a methodology to facilitate congressionally identified projects that can assist with transportation infrastructure improvements of national significance and that clearly and undeniably support our national transportation network.    Opportunities that encourage State leaders' and officials' interaction with their congressional delegations that require detailed explanations of the need of the national transportation network can only have positive outcomes. A carefully direct, transparent project vetting process is paramount and should be mandated before any congressionally identified funding is committed.    In addition, the responsible congressional Committee leadership and Committee Members should be provided with greater influence to shape and direct all facets of the Federal program. Discretionary transportation funding programs should be utilized to encourage a greater understanding of the critical needs of the national transportation system, and should require the broad support of Congress, rather than to be styled to pursue a narrowly defined agenda almost entirely by the executive branch.    I might make mention also, Mr. Chairman, that a couple of earmarks that come to light are the inland waterway system was an earmark, and so was our National System of Highways or the interstate system was both earmarks.    Mr. Chairman, Members, thank you again for the opportunity to visit with you today. I will be happy to answer any questions.</t>
@@ -581,7 +602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,7 +610,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,1421 +632,1669 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
         <v>17</v>
       </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
       <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
       <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>22</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
       <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
       <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
       <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
       <c r="H57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
       <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" t="s">
-        <v>72</v>
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20723.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20723.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>400220</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>King</t>
@@ -602,7 +608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,7 +616,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -635,1666 +641,1796 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>22</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>22</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>22</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>22</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>22</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>22</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I53" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>22</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I55" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I57" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I59" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>79</v>
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
